--- a/timeDeposit.xlsx
+++ b/timeDeposit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>HKD</t>
   </si>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,12 +499,12 @@
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>43347</v>
       </c>
@@ -515,17 +515,17 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>2.2999999999999998</v>
+        <v>2.35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G6" si="0">C2*D2*10000/100/12</f>
-        <v>383.33333333333331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G2:G7" si="0">C2*D2*10000/100/12</f>
+        <v>391.66666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43258</v>
       </c>
@@ -536,17 +536,17 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="5">
         <f>C3*D3*10000/100/12</f>
-        <v>937.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>979.16666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43294</v>
       </c>
@@ -567,384 +567,405 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>43278</v>
+        <v>43448</v>
       </c>
       <c r="B5" s="7">
-        <v>43643</v>
+        <v>43815</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>2.4500000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>2041.666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <f>C5*D5*10000/100/12</f>
+        <v>416.66666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>43279</v>
+        <v>43278</v>
       </c>
       <c r="B6" s="7">
-        <v>43644</v>
+        <v>43643</v>
       </c>
       <c r="C6" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>2.4500000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2124.9999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>43340</v>
+        <v>43279</v>
       </c>
       <c r="B7" s="7">
-        <v>43705</v>
+        <v>43644</v>
       </c>
       <c r="C7" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>2.2999999999999998</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="5">
-        <f>C7*D7*10000/100/12</f>
-        <v>575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+        <f t="shared" si="0"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>43340</v>
+      </c>
+      <c r="B8" s="7">
+        <v>43705</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>2.35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <f>C8*D8*10000/100/12</f>
+        <v>587.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
-        <f>SUM(C2:C6)</f>
-        <v>410</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="G8" s="6">
-        <f>SUM(G2:G7)</f>
-        <v>8687.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <f>SUM(C2:C8)</f>
+        <v>460</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="G9" s="6">
+        <f>SUM(G2:G8)</f>
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="5">
         <v>996.98</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5">
-        <v>885.76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="5">
+        <v>867.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="6">
-        <f>SUM(G10:G11)</f>
-        <v>1882.74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="6">
+        <f>SUM(G11:G12)</f>
+        <v>1864.6599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="17">
-        <f>G8+G12</f>
-        <v>10570.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
+      <c r="G14" s="17">
+        <f>G9+G13</f>
+        <v>11164.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>43382</v>
-      </c>
-      <c r="B16" s="7">
-        <v>43747</v>
-      </c>
-      <c r="C16" s="1">
-        <f>E16*7.83</f>
-        <v>164.43</v>
-      </c>
-      <c r="D16">
-        <v>2.9</v>
-      </c>
-      <c r="E16" s="1">
-        <v>21</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" ref="G16:G17" si="1">C16*D16*10000/100/12</f>
-        <v>3973.7249999999999</v>
-      </c>
-      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>43343</v>
+        <v>43382</v>
       </c>
       <c r="B17" s="7">
-        <v>43711</v>
+        <v>43747</v>
       </c>
       <c r="C17" s="1">
         <f>E17*7.83</f>
+        <v>164.43</v>
+      </c>
+      <c r="D17">
+        <v>2.9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>21</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" ref="G17:G18" si="1">C17*D17*10000/100/12</f>
+        <v>3973.7249999999999</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>43343</v>
+      </c>
+      <c r="B18" s="7">
+        <v>43711</v>
+      </c>
+      <c r="C18" s="1">
+        <f>E18*7.83</f>
         <v>24.6645</v>
       </c>
-      <c r="D17">
-        <v>2.75</v>
-      </c>
-      <c r="E17" s="16">
+      <c r="D18">
+        <v>2.8</v>
+      </c>
+      <c r="E18" s="16">
         <v>3.15</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>565.22812499999998</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+        <v>575.50499999999988</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="4">
-        <f>E18*7.83</f>
+      <c r="C19" s="4">
+        <f>E19*7.83</f>
         <v>189.09449999999998</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4">
-        <f>SUM(E16:E17)</f>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4">
+        <f>SUM(E17:E18)</f>
         <v>24.15</v>
       </c>
-      <c r="G18" s="6">
-        <f>SUM(G16:G17)</f>
-        <v>4538.953125</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="18">
-        <f>G13+G18</f>
-        <v>15109.193125</v>
+      <c r="G19" s="6">
+        <f>SUM(G17:G18)</f>
+        <v>4549.2299999999996</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="18">
+        <f>G14+G19</f>
+        <v>15713.89</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>43277</v>
-      </c>
-      <c r="B22" s="7">
-        <v>43642</v>
-      </c>
-      <c r="C22" s="11">
-        <f>E22*1.131</f>
-        <v>14.2506</v>
-      </c>
-      <c r="D22">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="E22" s="9">
-        <v>12.6</v>
-      </c>
-      <c r="G22" s="5">
-        <f>C22*D22*10000/100/12</f>
-        <v>492.83324999999996</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>43297</v>
+        <v>43277</v>
       </c>
       <c r="B23" s="7">
-        <v>43481</v>
+        <v>43642</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23:C24" si="2">E23*1.131</f>
-        <v>17.643599999999999</v>
+        <f>E23*1.135</f>
+        <v>14.301</v>
       </c>
       <c r="D23">
-        <v>3.4</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E23" s="9">
-        <v>15.6</v>
+        <v>12.6</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" ref="G23:G24" si="3">C23*D23*10000/100/12</f>
-        <v>499.90200000000004</v>
+        <f>C23*D23*10000/100/12</f>
+        <v>494.57625000000007</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>43097</v>
+        <v>43297</v>
       </c>
       <c r="B24" s="7">
-        <v>43462</v>
+        <v>43481</v>
       </c>
       <c r="C24" s="11">
+        <f t="shared" ref="C24:C25" si="2">E24*1.135</f>
+        <v>17.706</v>
+      </c>
+      <c r="D24">
+        <v>3.4</v>
+      </c>
+      <c r="E24" s="9">
+        <v>15.6</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" ref="G24:G25" si="3">C24*D24*10000/100/12</f>
+        <v>501.67</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>43465</v>
+      </c>
+      <c r="B25" s="7">
+        <v>43830</v>
+      </c>
+      <c r="C25" s="11">
         <f t="shared" si="2"/>
-        <v>28.274999999999999</v>
-      </c>
-      <c r="D24">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="E24" s="10">
-        <v>25</v>
-      </c>
-      <c r="G24" s="5">
+        <v>31.212499999999999</v>
+      </c>
+      <c r="D25">
+        <v>3.6</v>
+      </c>
+      <c r="E25" s="10">
+        <v>27.5</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
-        <v>977.84375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+        <v>936.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="4">
-        <f>SUM(C22:C24)</f>
-        <v>60.169199999999996</v>
-      </c>
-      <c r="G25" s="6">
-        <f>SUM(G22:G24)</f>
-        <v>1970.579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="4"/>
-      <c r="G26" s="6"/>
+      <c r="C26" s="4">
+        <f>SUM(C23:C25)</f>
+        <v>63.219499999999996</v>
+      </c>
+      <c r="G26" s="6">
+        <f>SUM(G23:G25)</f>
+        <v>1932.6212500000001</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="4"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>41696</v>
-      </c>
-      <c r="B28" s="7">
-        <v>43500</v>
-      </c>
-      <c r="C28" s="1">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <v>3.6</v>
-      </c>
-      <c r="G28" s="5">
-        <f>C28*D28*10000/100/12</f>
-        <v>3000</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>41351</v>
+        <v>41696</v>
       </c>
       <c r="B29" s="7">
-        <v>43536</v>
+        <v>43500</v>
       </c>
       <c r="C29" s="1">
         <v>100</v>
       </c>
       <c r="D29">
-        <v>4.17</v>
+        <v>3.6</v>
       </c>
       <c r="G29" s="5">
         <f>C29*D29*10000/100/12</f>
-        <v>3475</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>42989</v>
+        <v>41351</v>
       </c>
       <c r="B30" s="7">
-        <v>46641</v>
+        <v>43536</v>
       </c>
       <c r="C30" s="1">
         <v>100</v>
       </c>
       <c r="D30">
-        <v>4.9000000000000004</v>
+        <v>4.17</v>
       </c>
       <c r="G30" s="5">
         <f>C30*D30*10000/100/12</f>
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>42989</v>
+      </c>
+      <c r="B31" s="7">
+        <v>46641</v>
+      </c>
+      <c r="C31" s="1">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G31" s="5">
+        <f>C31*D31*10000/100/12</f>
         <v>4083.3333333333339</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="2" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="6">
-        <f>SUM(G28:G30)</f>
+      <c r="G32" s="6">
+        <f>SUM(G29:G31)</f>
         <v>10558.333333333334</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="14" t="s">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="15">
-        <f>G19+G25+G31</f>
-        <v>27638.105458333332</v>
+      <c r="G34" s="15">
+        <f>G20+G26+G32</f>
+        <v>28204.844583333332</v>
       </c>
     </row>
   </sheetData>

--- a/timeDeposit.xlsx
+++ b/timeDeposit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="14970" windowHeight="7920"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15330" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="timeDeposit" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>HKD</t>
   </si>
@@ -155,7 +155,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -179,6 +179,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -485,7 +488,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,8 +496,7 @@
     <col min="1" max="1" width="11.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -659,7 +661,7 @@
         <f>SUM(C2:C8)</f>
         <v>460</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="21"/>
       <c r="G9" s="6">
         <f>SUM(G2:G8)</f>
         <v>9300</v>
@@ -678,6 +680,13 @@
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <f>(G11*12)/(C11*100)</f>
+        <v>5.9818800000000003</v>
+      </c>
       <c r="G11" s="5">
         <v>996.98</v>
       </c>
@@ -689,11 +698,26 @@
       <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="1">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3">
+        <f>(G12*12)/(C12*100)</f>
+        <v>4.1648639999999997</v>
+      </c>
       <c r="G12" s="5">
         <v>867.68</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUM(C11:C12)</f>
+        <v>45</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,8 +751,8 @@
         <v>43747</v>
       </c>
       <c r="C17" s="1">
-        <f>E17*7.83</f>
-        <v>164.43</v>
+        <f>E17*7.82</f>
+        <v>164.22</v>
       </c>
       <c r="D17">
         <v>2.9</v>
@@ -738,7 +762,7 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" ref="G17:G18" si="1">C17*D17*10000/100/12</f>
-        <v>3973.7249999999999</v>
+        <v>3968.65</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -750,8 +774,8 @@
         <v>43711</v>
       </c>
       <c r="C18" s="1">
-        <f>E18*7.83</f>
-        <v>24.6645</v>
+        <f>E18*7.82</f>
+        <v>24.632999999999999</v>
       </c>
       <c r="D18">
         <v>2.8</v>
@@ -761,7 +785,7 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>575.50499999999988</v>
+        <v>574.76999999999987</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -773,14 +797,14 @@
         <f>E19*7.83</f>
         <v>189.09449999999998</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="4">
         <f>SUM(E17:E18)</f>
         <v>24.15</v>
       </c>
       <c r="G19" s="6">
         <f>SUM(G17:G18)</f>
-        <v>4549.2299999999996</v>
+        <v>4543.42</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -791,7 +815,7 @@
       </c>
       <c r="G20" s="18">
         <f>G14+G19</f>
-        <v>15713.89</v>
+        <v>15708.08</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -881,6 +905,7 @@
         <f>SUM(C23:C25)</f>
         <v>63.219499999999996</v>
       </c>
+      <c r="D26" s="21"/>
       <c r="G26" s="6">
         <f>SUM(G23:G25)</f>
         <v>1932.6212500000001</v>
@@ -898,38 +923,38 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>41696</v>
+        <v>43479</v>
       </c>
       <c r="B29" s="7">
-        <v>43500</v>
+        <v>45326</v>
       </c>
       <c r="C29" s="1">
         <v>100</v>
       </c>
       <c r="D29">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="G29" s="5">
         <f>C29*D29*10000/100/12</f>
-        <v>3000</v>
+        <v>3333.3333333333335</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>41351</v>
+        <v>43398</v>
       </c>
       <c r="B30" s="7">
-        <v>43536</v>
+        <v>48146</v>
       </c>
       <c r="C30" s="1">
         <v>100</v>
       </c>
       <c r="D30">
-        <v>4.17</v>
+        <v>5.5</v>
       </c>
       <c r="G30" s="5">
         <f>C30*D30*10000/100/12</f>
-        <v>3475</v>
+        <v>4583.333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -951,21 +976,37 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4">
+        <f>SUM(C29:C31)</f>
+        <v>300</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="F32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="6">
         <f>SUM(G29:G31)</f>
-        <v>10558.333333333334</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C34" s="19">
+        <f>C9+C13+C19+C26+C32</f>
+        <v>1057.3139999999999</v>
+      </c>
+      <c r="D34" s="20">
+        <f>(G34*12)/(C34*100)</f>
+        <v>3.3640755253406276</v>
+      </c>
       <c r="F34" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="15">
         <f>G20+G26+G32</f>
-        <v>28204.844583333332</v>
+        <v>29640.701249999998</v>
       </c>
     </row>
   </sheetData>
